--- a/QHKH/BIEUMAUEXCEL/BM10CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM10CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE77156-1F1E-4E16-9610-97C0960B63DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E1FDE-0140-4C1B-8818-4893D1C3448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1305" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -66,6 +66,9 @@
     <t xml:space="preserve">DANH MỤC CÔNG TRÌNH, DỰ ÁN THỰC HIỆN TRONG NĂM 20…
 HUYỆN (QUẬN, THỊ XÃ, THÀNH PHỐ THUỘC TỈNH, THÀNH PHỐ THUỘC THÀNH PHỐ TRỰC THUỘC TRUNG ƯƠNG) …
 </t>
+  </si>
+  <si>
+    <t>BM10/CH</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,6 +225,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,26 +240,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +575,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,62 +589,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
